--- a/Port to WIN32.xlsx
+++ b/Port to WIN32.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="27675" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="27675" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Information Technology</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Information Technology:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+see sipp_globals.hpp #define ssize_t int ??
+DEBUG arg counts
+size_t to int
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
   <si>
     <t>class</t>
   </si>
@@ -469,13 +506,34 @@
   </si>
   <si>
     <t>CSample</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>0/11</t>
+  </si>
+  <si>
+    <t>0/41</t>
+  </si>
+  <si>
+    <t>0/22</t>
+  </si>
+  <si>
+    <t>0/28</t>
+  </si>
+  <si>
+    <t>w32-20120605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +638,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -669,6 +740,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -747,6 +823,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -781,6 +858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -956,867 +1034,957 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="15" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15" customWidth="1"/>
+    <col min="5" max="6" width="7.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="62.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="C2" s="19"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="45">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" s="19"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="19"/>
+      <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E4" s="19"/>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="19"/>
+      <c r="I4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="19"/>
+      <c r="C7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" s="19"/>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="19"/>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="19"/>
+      <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="19"/>
+      <c r="H9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="19"/>
+      <c r="I10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="19"/>
+      <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="H15" s="1" t="s">
+      <c r="F15" s="19"/>
+      <c r="I15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="19"/>
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E16" s="19"/>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="19"/>
+      <c r="H16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="K17" s="1" t="s">
+      <c r="F17" s="19"/>
+      <c r="L17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="19"/>
+      <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="135">
+    <row r="19" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="D20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="15"/>
+      <c r="C22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="E22" s="15"/>
-      <c r="K22" s="4" t="s">
+      <c r="F22" s="15"/>
+      <c r="L22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="D24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="15" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="15" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>134</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>130</v>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D15" s="11"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="11"/>
+      <c r="G15" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1827,12 +1995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
